--- a/Analyzed/try8/data_2018.xlsx
+++ b/Analyzed/try8/data_2018.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD11"/>
+  <dimension ref="A1:AI11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -440,72 +440,97 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>caseA_rank</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>caseC_rank</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>caseZ_rank</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
           <t>Rank</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>caseA_rankdif</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>caseB_rankdif</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>caseC_rankdif</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>caseD_rankdif</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>caseX_rankdif</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>caseY_rankdif</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>caseZ_rankdif</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>ACXZcomb</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>AXcomb</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>AZcomb</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>CXcomb</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>CZcomb</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>XZcomb</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>AZhapdif</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>CZhapdif</t>
         </is>
       </c>
     </row>
@@ -540,13 +565,13 @@
         <v>53.41</v>
       </c>
       <c r="J2">
-        <v>594.2</v>
+        <v>911.66061</v>
       </c>
       <c r="K2">
         <v>1715.929</v>
       </c>
       <c r="L2">
-        <v>558.1799999999999</v>
+        <v>873.49815</v>
       </c>
       <c r="M2">
         <v>66.23765485298911</v>
@@ -558,49 +583,64 @@
         <v>-259.33</v>
       </c>
       <c r="P2">
-        <v>473.2987657008637</v>
+        <v>618.97123419312</v>
       </c>
       <c r="Q2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="S2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W2">
+        <v>5</v>
+      </c>
+      <c r="X2">
+        <v>4</v>
+      </c>
+      <c r="Y2">
+        <v>1</v>
+      </c>
+      <c r="Z2">
         <v>8</v>
       </c>
-      <c r="X2">
-        <v>1</v>
-      </c>
-      <c r="Y2">
-        <v>1</v>
-      </c>
-      <c r="Z2">
-        <v>1</v>
-      </c>
       <c r="AA2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC2">
         <v>0</v>
       </c>
       <c r="AD2">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>1</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2">
+        <v>1</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -634,13 +674,13 @@
         <v>65.78999999999999</v>
       </c>
       <c r="J3">
-        <v>610</v>
+        <v>1020.0767</v>
       </c>
       <c r="K3">
         <v>2261.836</v>
       </c>
       <c r="L3">
-        <v>598.7099999999999</v>
+        <v>1126.86035</v>
       </c>
       <c r="M3">
         <v>67.61991461517884</v>
@@ -652,49 +692,64 @@
         <v>-207.61</v>
       </c>
       <c r="P3">
-        <v>470.6906047264285</v>
+        <v>616.0804967895471</v>
       </c>
       <c r="Q3">
         <v>1</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>2</v>
+      </c>
+      <c r="Y3">
         <v>7</v>
       </c>
-      <c r="W3">
+      <c r="Z3">
         <v>8</v>
       </c>
-      <c r="X3">
-        <v>1</v>
-      </c>
-      <c r="Y3">
-        <v>1</v>
-      </c>
-      <c r="Z3">
-        <v>4</v>
-      </c>
       <c r="AA3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AC3">
         <v>0</v>
       </c>
       <c r="AD3">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>2</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -728,13 +783,13 @@
         <v>39.32</v>
       </c>
       <c r="J4">
-        <v>513</v>
+        <v>664.37383</v>
       </c>
       <c r="K4">
         <v>1270.727</v>
       </c>
       <c r="L4">
-        <v>526.89</v>
+        <v>777.9695</v>
       </c>
       <c r="M4">
         <v>65.47645277783643</v>
@@ -746,49 +801,64 @@
         <v>-169.92</v>
       </c>
       <c r="P4">
-        <v>385.0940738597737</v>
+        <v>500.3465697966031</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="R4">
+        <v>9</v>
+      </c>
+      <c r="S4">
+        <v>9</v>
+      </c>
+      <c r="T4">
+        <v>3</v>
+      </c>
+      <c r="U4">
         <v>6</v>
       </c>
-      <c r="S4">
-        <v>3</v>
-      </c>
-      <c r="T4">
-        <v>4</v>
-      </c>
-      <c r="U4">
-        <v>4</v>
-      </c>
       <c r="V4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="X4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Y4">
         <v>2</v>
       </c>
       <c r="Z4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA4">
         <v>6</v>
       </c>
       <c r="AB4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AC4">
         <v>5</v>
       </c>
       <c r="AD4">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="AE4">
+        <v>4</v>
+      </c>
+      <c r="AF4">
+        <v>6</v>
+      </c>
+      <c r="AG4">
+        <v>1</v>
+      </c>
+      <c r="AH4">
+        <v>6</v>
+      </c>
+      <c r="AI4">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -822,13 +892,13 @@
         <v>48.26</v>
       </c>
       <c r="J5">
-        <v>571.8000000000001</v>
+        <v>770.34009</v>
       </c>
       <c r="K5">
         <v>1730.833</v>
       </c>
       <c r="L5">
-        <v>561.12</v>
+        <v>825.55305</v>
       </c>
       <c r="M5">
         <v>67.38161090975822</v>
@@ -840,49 +910,64 @@
         <v>-135.38</v>
       </c>
       <c r="P5">
-        <v>397.1079117084658</v>
+        <v>520.3479857679517</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="S5">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="T5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AC5">
         <v>2</v>
       </c>
       <c r="AD5">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="AE5">
+        <v>5</v>
+      </c>
+      <c r="AF5">
+        <v>4</v>
+      </c>
+      <c r="AG5">
+        <v>2</v>
+      </c>
+      <c r="AH5">
+        <v>4</v>
+      </c>
+      <c r="AI5">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -916,13 +1001,13 @@
         <v>45.13</v>
       </c>
       <c r="J6">
-        <v>569</v>
+        <v>830.10121</v>
       </c>
       <c r="K6">
         <v>1215.325</v>
       </c>
       <c r="L6">
-        <v>559.4399999999999</v>
+        <v>949.40475</v>
       </c>
       <c r="M6">
         <v>66.73622260743772</v>
@@ -934,49 +1019,64 @@
         <v>-139.54</v>
       </c>
       <c r="P6">
-        <v>405.9230057054382</v>
+        <v>531.0316511110036</v>
       </c>
       <c r="Q6">
+        <v>6</v>
+      </c>
+      <c r="R6">
+        <v>3</v>
+      </c>
+      <c r="S6">
         <v>5</v>
       </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>2</v>
-      </c>
       <c r="T6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V6">
+        <v>2</v>
+      </c>
+      <c r="W6">
+        <v>2</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
         <v>5</v>
       </c>
-      <c r="W6">
-        <v>3</v>
-      </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
-      <c r="Y6">
-        <v>3</v>
-      </c>
       <c r="Z6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AA6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AC6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD6">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>4</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -1010,13 +1110,13 @@
         <v>45.17</v>
       </c>
       <c r="J7">
-        <v>545.2</v>
+        <v>845.83524</v>
       </c>
       <c r="K7">
         <v>1153.503</v>
       </c>
       <c r="L7">
-        <v>560.0699999999999</v>
+        <v>969.3145</v>
       </c>
       <c r="M7">
         <v>69.09180171727232</v>
@@ -1028,7 +1128,7 @@
         <v>-181.57</v>
       </c>
       <c r="P7">
-        <v>404.6004996300648</v>
+        <v>528.0382148218996</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -1037,40 +1137,55 @@
         <v>2</v>
       </c>
       <c r="S7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="T7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="U7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V7">
         <v>3</v>
       </c>
       <c r="W7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD7">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>3</v>
+      </c>
+      <c r="AF7">
+        <v>3</v>
+      </c>
+      <c r="AG7">
+        <v>1</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -1104,13 +1219,13 @@
         <v>44.32</v>
       </c>
       <c r="J8">
-        <v>580.4</v>
+        <v>913.50846</v>
       </c>
       <c r="K8">
         <v>1724.513</v>
       </c>
       <c r="L8">
-        <v>535.0799999999999</v>
+        <v>941.5819</v>
       </c>
       <c r="M8">
         <v>61.00740456057102</v>
@@ -1122,49 +1237,64 @@
         <v>-172.45</v>
       </c>
       <c r="P8">
-        <v>421.5623780662929</v>
+        <v>550.1570203952525</v>
       </c>
       <c r="Q8">
+        <v>2</v>
+      </c>
+      <c r="R8">
+        <v>4</v>
+      </c>
+      <c r="S8">
+        <v>4</v>
+      </c>
+      <c r="T8">
         <v>7</v>
       </c>
-      <c r="R8">
-        <v>4</v>
-      </c>
-      <c r="S8">
-        <v>4</v>
-      </c>
-      <c r="T8">
-        <v>1</v>
-      </c>
       <c r="U8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z8">
         <v>1</v>
       </c>
       <c r="AA8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AB8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD8">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="AE8">
+        <v>3</v>
+      </c>
+      <c r="AF8">
+        <v>3</v>
+      </c>
+      <c r="AG8">
+        <v>1</v>
+      </c>
+      <c r="AH8">
+        <v>4</v>
+      </c>
+      <c r="AI8">
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -1198,13 +1328,13 @@
         <v>41.55</v>
       </c>
       <c r="J9">
-        <v>526.8000000000001</v>
+        <v>771.9822</v>
       </c>
       <c r="K9">
         <v>1646.437</v>
       </c>
       <c r="L9">
-        <v>520.59</v>
+        <v>892.8528</v>
       </c>
       <c r="M9">
         <v>62.84857266626491</v>
@@ -1216,49 +1346,64 @@
         <v>-182.81</v>
       </c>
       <c r="P9">
-        <v>445.0867169854145</v>
+        <v>583.6386185098747</v>
       </c>
       <c r="Q9">
+        <v>7</v>
+      </c>
+      <c r="R9">
+        <v>5</v>
+      </c>
+      <c r="S9">
+        <v>3</v>
+      </c>
+      <c r="T9">
         <v>8</v>
       </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <v>3</v>
-      </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
       <c r="U9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>1</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
         <v>5</v>
       </c>
-      <c r="Y9">
-        <v>1</v>
-      </c>
-      <c r="Z9">
-        <v>0</v>
-      </c>
-      <c r="AA9">
-        <v>3</v>
-      </c>
       <c r="AB9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AD9">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="AE9">
+        <v>2</v>
+      </c>
+      <c r="AF9">
+        <v>2</v>
+      </c>
+      <c r="AG9">
+        <v>3</v>
+      </c>
+      <c r="AH9">
+        <v>4</v>
+      </c>
+      <c r="AI9">
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -1292,13 +1437,13 @@
         <v>37.15</v>
       </c>
       <c r="J10">
-        <v>546.6</v>
+        <v>893.6469300000001</v>
       </c>
       <c r="K10">
         <v>696.569</v>
       </c>
       <c r="L10">
-        <v>508.41</v>
+        <v>874.89535</v>
       </c>
       <c r="M10">
         <v>58.71569497505569</v>
@@ -1310,48 +1455,63 @@
         <v>-155.65</v>
       </c>
       <c r="P10">
-        <v>396.4538973461343</v>
+        <v>517.9729156007203</v>
       </c>
       <c r="Q10">
+        <v>4</v>
+      </c>
+      <c r="R10">
+        <v>6</v>
+      </c>
+      <c r="S10">
+        <v>8</v>
+      </c>
+      <c r="T10">
         <v>9</v>
       </c>
-      <c r="R10">
-        <v>3</v>
-      </c>
-      <c r="S10">
-        <v>1</v>
-      </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
       <c r="U10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="W10">
+        <v>3</v>
+      </c>
+      <c r="X10">
+        <v>1</v>
+      </c>
+      <c r="Y10">
+        <v>4</v>
+      </c>
+      <c r="Z10">
         <v>5</v>
       </c>
-      <c r="X10">
-        <v>1</v>
-      </c>
-      <c r="Y10">
-        <v>0</v>
-      </c>
-      <c r="Z10">
-        <v>2</v>
-      </c>
       <c r="AA10">
         <v>1</v>
       </c>
       <c r="AB10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AC10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AD10">
+        <v>5</v>
+      </c>
+      <c r="AE10">
+        <v>1</v>
+      </c>
+      <c r="AF10">
+        <v>2</v>
+      </c>
+      <c r="AG10">
+        <v>2</v>
+      </c>
+      <c r="AH10">
+        <v>2</v>
+      </c>
+      <c r="AI10">
         <v>2</v>
       </c>
     </row>
@@ -1386,13 +1546,13 @@
         <v>25.35</v>
       </c>
       <c r="J11">
-        <v>494.6</v>
+        <v>594.34857</v>
       </c>
       <c r="K11">
         <v>945.4730000000001</v>
       </c>
       <c r="L11">
-        <v>476.49</v>
+        <v>617.0682</v>
       </c>
       <c r="M11">
         <v>73.75618291820354</v>
@@ -1404,38 +1564,38 @@
         <v>-151.83</v>
       </c>
       <c r="P11">
-        <v>334.7422975027648</v>
+        <v>435.4733102666495</v>
       </c>
       <c r="Q11">
         <v>10</v>
       </c>
       <c r="R11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S11">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>1</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
         <v>9</v>
       </c>
-      <c r="V11">
-        <v>4</v>
-      </c>
-      <c r="W11">
+      <c r="Y11">
+        <v>4</v>
+      </c>
+      <c r="Z11">
         <v>7</v>
       </c>
-      <c r="X11">
-        <v>0</v>
-      </c>
-      <c r="Y11">
-        <v>0</v>
-      </c>
-      <c r="Z11">
-        <v>0</v>
-      </c>
       <c r="AA11">
         <v>0</v>
       </c>
@@ -1446,6 +1606,21 @@
         <v>0</v>
       </c>
       <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
         <v>0</v>
       </c>
     </row>
